--- a/biology/Botanique/Panicum_acuminatum/Panicum_acuminatum.xlsx
+++ b/biology/Botanique/Panicum_acuminatum/Panicum_acuminatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicum acuminatum est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tempérées. Le nom Panicum acuminatum est un synonyme non valide de Hymenachne amplexicaulis . 
 </t>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (24 juillet 2017)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 juillet 2017) :
 Dichanthelium acuminatum (Sw.) Gould &amp; C.A.Clark
-Panicum dichotomum var. acuminatum (Sw.) Griseb.
-Liste des variétés
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[3] :
+Panicum dichotomum var. acuminatum (Sw.) Griseb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Panicum_acuminatum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Panicum_acuminatum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 variété Panicum acuminatum var. acuminatum
 variété Panicum acuminatum var. densiflorum (E.L.Rand &amp; Redfield) Lelong (1984)
 variété Panicum acuminatum var. lindheimeri (Nash) Beetle (1981)
